--- a/HarpLake/HarpLakeparameters.xlsx
+++ b/HarpLake/HarpLakeparameters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="28455" windowHeight="12525"/>
@@ -117,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,11 +157,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -235,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -269,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,20 +451,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,14 +475,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -497,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -508,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -519,7 +526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -530,7 +537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -541,14 +548,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -559,36 +566,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -599,7 +606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -610,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -621,7 +628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -632,7 +639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -643,14 +650,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -661,7 +668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -678,24 +685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HarpLake/HarpLakeparameters.xlsx
+++ b/HarpLake/HarpLakeparameters.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="28455" windowHeight="12525"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -117,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -275,7 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,20 +449,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -475,36 +473,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>32448</v>
+        <v>4000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>14.6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -515,7 +513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -526,7 +524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -537,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -548,14 +546,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -566,14 +564,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -584,7 +582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -595,7 +593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -606,7 +604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -617,7 +615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -628,7 +626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -639,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -650,14 +648,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -668,7 +666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -685,24 +683,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
